--- a/days.xlsx
+++ b/days.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathys\Documents\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathys\Documents\Python\Cookie Advent Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B50AE-9FE4-4F44-93E1-158E0DABE9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CDEE05-8D5A-402D-B91B-907BD606DDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D1F29C5-BB76-4BC0-9D80-B5FA01612D38}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{1D1F29C5-BB76-4BC0-9D80-B5FA01612D38}"/>
   </bookViews>
   <sheets>
     <sheet name="Messages" sheetId="2" r:id="rId1"/>
@@ -62,12 +62,6 @@
     <t>Omg its already the 5th we so close from livmas already  hehe the package might be late but my love is fast and catched you MWAAAAAAAAAAAAAAAAAAH SOWWY I LOVE YOU COOKIE</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1ExtAIp4role70hcCF7Fz4GOl-pOIKxix</t>
-  </si>
-  <si>
     <t>https://drive.google.com/uc?export=download&amp;id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
   </si>
   <si>
@@ -276,6 +270,12 @@
   </si>
   <si>
     <t>audio</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1ExtAIp4role70hcCF7Fz4GOl-pOIKxix=FILE_ID</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV=FILE_ID</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,16 +715,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,13 +761,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,10 +792,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,13 +803,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,13 +817,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,13 +831,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,13 +845,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,13 +873,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,13 +887,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,13 +901,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,13 +915,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,13 +943,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,13 +957,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,13 +971,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,13 +985,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,13 +999,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,13 +1013,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,13 +1027,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1041,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/days.xlsx
+++ b/days.xlsx
@@ -100,148 +100,148 @@
     <t>MERRY LIVMASSSSSSSSSSSSSSSSSSSSSSSSSSSSSSS COOKIE WAKE UP ITS LIVMAS ONE OF THE BEST DAY OF THE YEAR YAYAYAYAYYAYAYYAYAYAYA I HOPE YOU SANTALIVIA GOT YOU EVERYTHING YOUWANTED MAYBE HE GOT STUCK IN SOMEONES CHIMNEY SO YOUR GIFT MIGHT BE A LIL LATE IM SOWWY I WISH YOU THE HAPPIEST LIVMAS EVER AND AN AMAZING DAY TODAY YOU GONNA EAT WELL I HOPE I LOVE YOU SO MUCH AND THANK YOU FOR THAT AMAZING YEAR WE SPENT TOGETHER AGAIN ITS BEEN YEAR OF IMPROVEMENT FR AND IT WONT EVER STOP YAYAYAYYAYYAYAYAYAYAYYAYAYAYAYAY</t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV=FILE_ID</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1gvY2M2D5uQXOLPq8_nrTDcuhnOgDt1mv</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1RUoXaI0tCiTUVJH1CwDNBmrGHG3B38ce</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1XgVEvBeEw9mmH4Sg-U0lIynjI3X8uA8y</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1q90SEhpTxSGQDiY652adYF2Ej-1DVJ1u</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1we3nj6T0gaSAfeETAA2_ffkdbHKTZKe</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1N16AeaEf9B3jbAxah2h3q50F7TeMCJY3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1hJhePKwM83WWBndemzHdwgPPgeim6aVH</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1cAUO7NQ3fsnIvx37Yc1HO5OMfD8UlLPs</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1W_Ol-b1SIJxAIrKhVFi9_gniq3DFH2Be</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1g3rRetLejsHMDw1AK6-BkPnbVMHyVaPc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1rP2J6qkbwII2NNKLyf76KLStJxImiEjZ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1mYl5_kMbOk07srSM5AC6Fd1D2a5t6Mvz</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1p_y9MXF2Lez29G1GCFHRCNLq34wGQsCP</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1PNshTU_Gt27rfePDfxLwEZIoa-UPN4i-</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1iuQNBlX5ULFJuj5Mh1Y8OHQTqJc4df4D</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1FMnHlklBjt5oe3Aul1YirbwhnrGFoTII</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1ihdSI889_Y1wxO2DArrwKX_OLV-McKsk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=16KolvaIcKm6Bds2EMEUL480WKA515TtF</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1oxs_MMNisWSe9WHpAzi2Gp0GS3Ia-0Lo</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1dN9gMbnypUO_-PNlOS73LcW61x5-AodN</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1yHht1DyjUjah-xEmcsu5N9ydwB1hKi-h</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1McTmDZSsTXGVksTI6rWVejaSv3xxYOnh</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1ExtAIp4role70hcCF7Fz4GOl-pOIKxix=FILE_ID</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1zhnQG7m5IWTz9OuhqVFDkFDIwcHpAvTi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1nw6vtfG7L6O9ThsJrgVeGLuc4BuT3Abf</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1H5Y0hM7vgJJ7LtQVA5z7Fb1SylTomIFB</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1vTYszA7AILsutGqEYvGRqWNszzCqC7zQ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1burXtXKuKfmGjM-CK6S0rixB5h7h1O1H</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1EtjipfkwhAfiTmuKGabvhtnhvWFTjjm8</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1mPrwDS2x4yttVnGxzC76pWKpMuT5IZfJ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1E3C4_0IRPMCmPnIVTnT4APWQkCeGFK15</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1yT7UpvqquGYsRg9CPVV3nXd1JqcUREwc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1yuQEORHsMp810b5r_nI93yRLPz3f2Uvc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1tZ-7KiNMm16ZeIO-Kq2LLPpAC1veCYu5</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1ngOIYKhR92vqwTMiiNPg1iStAAwOn8pN</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1JiPY4wZMGVdEiZCXssD9xylAI9P1-TSh</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1O5IFaInakxMvEzS662vl2Ukwm1tX5nqv</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1mibMHuV04c2Ewv5vuRGJiAEAVA5Jpv--</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1WC6QMmIdwdec3v17Z8lrRmEpQGvqy08r</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1Z1XSwxGS4FkJz12Kk9avBoOaXltT69gb</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1F1rHdqTj1EDoLPoXvETQAniGIQEWRvRa</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1wrdoyUW6RhgnMa60HDsnAizlp3dSxOob</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1SH7mPhxRr24CuJFh5V2_BdDxgWlcrpXN</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=14CpHynbf9M3Rspo1rNwF7oqdu2Qu73ha</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1xhj3ulESkw95DyyALNpNblO0u-zODWJR</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1Dlyefqki3a_BjvcVL_fFHbp48QSKWdUL</t>
+    <t>https://drive.google.com/uc?export=media&amp;id=1HMYZcMib530mPnXfWylSLhhELM1fVUCV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1ExtAIp4role70hcCF7Fz4GOl-pOIKxix</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1XpHtsMXASzE0c30eol_L4v5yxtVv5M6D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1zhnQG7m5IWTz9OuhqVFDkFDIwcHpAvTi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1gvY2M2D5uQXOLPq8_nrTDcuhnOgDt1mv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1nw6vtfG7L6O9ThsJrgVeGLuc4BuT3Abf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1RUoXaI0tCiTUVJH1CwDNBmrGHG3B38ce</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1H5Y0hM7vgJJ7LtQVA5z7Fb1SylTomIFB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1XgVEvBeEw9mmH4Sg-U0lIynjI3X8uA8y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1vTYszA7AILsutGqEYvGRqWNszzCqC7zQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1q90SEhpTxSGQDiY652adYF2Ej-1DVJ1u</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1burXtXKuKfmGjM-CK6S0rixB5h7h1O1H</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1we3nj6T0gaSAfeETAA2_ffkdbHKTZKe_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1EtjipfkwhAfiTmuKGabvhtnhvWFTjjm8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1N16AeaEf9B3jbAxah2h3q50F7TeMCJY3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1mPrwDS2x4yttVnGxzC76pWKpMuT5IZfJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1hJhePKwM83WWBndemzHdwgPPgeim6aVH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1E3C4_0IRPMCmPnIVTnT4APWQkCeGFK15</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1cAUO7NQ3fsnIvx37Yc1HO5OMfD8UlLPs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1yT7UpvqquGYsRg9CPVV3nXd1JqcUREwc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1W_Ol-b1SIJxAIrKhVFi9_gniq3DFH2Be</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1yuQEORHsMp810b5r_nI93yRLPz3f2Uvc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1g3rRetLejsHMDw1AK6-BkPnbVMHyVaPc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1tZ-7KiNMm16ZeIO-Kq2LLPpAC1veCYu5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1rP2J6qkbwII2NNKLyf76KLStJxImiEjZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1ngOIYKhR92vqwTMiiNPg1iStAAwOn8pN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1mYl5_kMbOk07srSM5AC6Fd1D2a5t6Mvz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1JiPY4wZMGVdEiZCXssD9xylAI9P1-TSh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1p_y9MXF2Lez29G1GCFHRCNLq34wGQsCP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1O5IFaInakxMvEzS662vl2Ukwm1tX5nqv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1PNshTU_Gt27rfePDfxLwEZIoa-UPN4i-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1mibMHuV04c2Ewv5vuRGJiAEAVA5Jpv--</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1iuQNBlX5ULFJuj5Mh1Y8OHQTqJc4df4D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1WC6QMmIdwdec3v17Z8lrRmEpQGvqy08r</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1FMnHlklBjt5oe3Aul1YirbwhnrGFoTII</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1Z1XSwxGS4FkJz12Kk9avBoOaXltT69gb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1ihdSI889_Y1wxO2DArrwKX_OLV-McKsk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1F1rHdqTj1EDoLPoXvETQAniGIQEWRvRa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=16KolvaIcKm6Bds2EMEUL480WKA515TtF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1wrdoyUW6RhgnMa60HDsnAizlp3dSxOob</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1oxs_MMNisWSe9WHpAzi2Gp0GS3Ia-0Lo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1SH7mPhxRr24CuJFh5V2_BdDxgWlcrpXN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1dN9gMbnypUO_-PNlOS73LcW61x5-AodN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=14CpHynbf9M3Rspo1rNwF7oqdu2Qu73ha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1yHht1DyjUjah-xEmcsu5N9ydwB1hKi-h</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1xhj3ulESkw95DyyALNpNblO0u-zODWJR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1McTmDZSsTXGVksTI6rWVejaSv3xxYOnh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=media&amp;id=1Dlyefqki3a_BjvcVL_fFHbp48QSKWdUL</t>
   </si>
 </sst>
 </file>
